--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251111_201516.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251111_201516.xlsx
@@ -4513,7 +4513,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
